--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.517849</v>
+        <v>13.30571766666667</v>
       </c>
       <c r="H2">
-        <v>127.553547</v>
+        <v>39.917153</v>
       </c>
       <c r="I2">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167935</v>
       </c>
       <c r="J2">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167933</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>179.4364341112053</v>
+        <v>49.93552457802622</v>
       </c>
       <c r="R2">
-        <v>1614.927907000848</v>
+        <v>449.419721202236</v>
       </c>
       <c r="S2">
-        <v>0.01557826610762783</v>
+        <v>0.005240107780061191</v>
       </c>
       <c r="T2">
-        <v>0.01557826610762783</v>
+        <v>0.00524010778006119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.517849</v>
+        <v>13.30571766666667</v>
       </c>
       <c r="H3">
-        <v>127.553547</v>
+        <v>39.917153</v>
       </c>
       <c r="I3">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167935</v>
       </c>
       <c r="J3">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
-        <v>55.12216612773567</v>
+        <v>17.25016662227544</v>
       </c>
       <c r="R3">
-        <v>496.099495149621</v>
+        <v>155.251499600479</v>
       </c>
       <c r="S3">
-        <v>0.004785582017499037</v>
+        <v>0.001810188900358806</v>
       </c>
       <c r="T3">
-        <v>0.004785582017499037</v>
+        <v>0.001810188900358806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.517849</v>
+        <v>13.30571766666667</v>
       </c>
       <c r="H4">
-        <v>127.553547</v>
+        <v>39.917153</v>
       </c>
       <c r="I4">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167935</v>
       </c>
       <c r="J4">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>31.696801322406</v>
+        <v>5.653111560252222</v>
       </c>
       <c r="R4">
-        <v>285.271211901654</v>
+        <v>50.87800404227</v>
       </c>
       <c r="S4">
-        <v>0.002751844731015054</v>
+        <v>0.0005932232437479366</v>
       </c>
       <c r="T4">
-        <v>0.002751844731015054</v>
+        <v>0.0005932232437479366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4934.216186</v>
       </c>
       <c r="I5">
-        <v>0.8941956419399297</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="J5">
-        <v>0.8941956419399298</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>6941.227260027757</v>
+        <v>6172.601378392335</v>
       </c>
       <c r="R5">
-        <v>62471.04534024982</v>
+        <v>55553.41240553102</v>
       </c>
       <c r="S5">
-        <v>0.6026216799605928</v>
+        <v>0.64773719269915</v>
       </c>
       <c r="T5">
-        <v>0.6026216799605929</v>
+        <v>0.64773719269915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4934.216186</v>
       </c>
       <c r="I6">
-        <v>0.8941956419399297</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="J6">
-        <v>0.8941956419399298</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
         <v>2132.3176870562</v>
@@ -818,10 +818,10 @@
         <v>19190.8591835058</v>
       </c>
       <c r="S6">
-        <v>0.1851230075959729</v>
+        <v>0.2237600304778239</v>
       </c>
       <c r="T6">
-        <v>0.1851230075959729</v>
+        <v>0.223760030477824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4934.216186</v>
       </c>
       <c r="I7">
-        <v>0.8941956419399297</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="J7">
-        <v>0.8941956419399298</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>1226.142853788628</v>
+        <v>698.7891787237488</v>
       </c>
       <c r="R7">
-        <v>11035.28568409765</v>
+        <v>6289.10260851374</v>
       </c>
       <c r="S7">
-        <v>0.1064509543833641</v>
+        <v>0.0733291708256972</v>
       </c>
       <c r="T7">
-        <v>0.1064509543833641</v>
+        <v>0.07332917082569722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.093394</v>
+        <v>82.73961633333333</v>
       </c>
       <c r="H8">
-        <v>456.280182</v>
+        <v>248.218849</v>
       </c>
       <c r="I8">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316088</v>
       </c>
       <c r="J8">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316087</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N8">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q8">
-        <v>641.8738697536319</v>
+        <v>310.5165950830431</v>
       </c>
       <c r="R8">
-        <v>5776.864827782688</v>
+        <v>2794.649355747388</v>
       </c>
       <c r="S8">
-        <v>0.05572604025533572</v>
+        <v>0.03258482692397261</v>
       </c>
       <c r="T8">
-        <v>0.05572604025533572</v>
+        <v>0.0325848269239726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.093394</v>
+        <v>82.73961633333333</v>
       </c>
       <c r="H9">
-        <v>456.280182</v>
+        <v>248.218849</v>
       </c>
       <c r="I9">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316088</v>
       </c>
       <c r="J9">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.889343</v>
       </c>
       <c r="O9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q9">
-        <v>197.181125766714</v>
+        <v>107.2675825362452</v>
       </c>
       <c r="R9">
-        <v>1774.630131900426</v>
+        <v>965.4082428262071</v>
       </c>
       <c r="S9">
-        <v>0.01711882017612876</v>
+        <v>0.01125638908465337</v>
       </c>
       <c r="T9">
-        <v>0.01711882017612876</v>
+        <v>0.01125638908465337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>152.093394</v>
+        <v>82.73961633333333</v>
       </c>
       <c r="H10">
-        <v>456.280182</v>
+        <v>248.218849</v>
       </c>
       <c r="I10">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316088</v>
       </c>
       <c r="J10">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N10">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q10">
-        <v>113.384712666636</v>
+        <v>35.15302919410112</v>
       </c>
       <c r="R10">
-        <v>1020.462413999724</v>
+        <v>316.37726274691</v>
       </c>
       <c r="S10">
-        <v>0.009843804772463832</v>
+        <v>0.003688870064534895</v>
       </c>
       <c r="T10">
-        <v>0.009843804772463832</v>
+        <v>0.003688870064534895</v>
       </c>
     </row>
   </sheetData>
